--- a/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
@@ -9889,12 +9889,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9904,12 +9904,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">

--- a/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en País Vasco</t>
+          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Andalucia</t>
+          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7414,7 +7414,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana</t>
+          <t>Percepción del ruido en el interior de la vivienda en C.Valenciana (tasa de respuesta: 93,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Barcelona</t>
+          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14641</t>
+          <t>14784</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11711</t>
+          <t>12006</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18527</t>
+          <t>18792</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13603</t>
+          <t>17600</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10858</t>
+          <t>14137</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17469</t>
+          <t>22028</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>28244</t>
+          <t>32384</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24132</t>
+          <t>27412</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33181</t>
+          <t>37453</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27684</t>
+          <t>31184</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23801</t>
+          <t>26040</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32634</t>
+          <t>36038</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28249</t>
+          <t>33969</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24226</t>
+          <t>28908</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32651</t>
+          <t>38564</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>55933</t>
+          <t>65152</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>50495</t>
+          <t>57837</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>62388</t>
+          <t>71135</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>106899</t>
+          <t>121532</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>101353</t>
+          <t>116250</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>111670</t>
+          <t>126704</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>71,64%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,83%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>104136</t>
+          <t>124564</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>99317</t>
+          <t>119224</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>108741</t>
+          <t>130346</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>211035</t>
+          <t>246096</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203005</t>
+          <t>238160</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>217169</t>
+          <t>253440</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>71,49%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>68,77%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>73,75%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8350</t>
+          <t>9462</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6045</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11155</t>
+          <t>12305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12595</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10058</t>
+          <t>10684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16128</t>
+          <t>17579</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>20945</t>
+          <t>23384</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>17449</t>
+          <t>19598</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>25167</t>
+          <t>27936</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15725</t>
+          <t>17319</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12419</t>
+          <t>13982</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19143</t>
+          <t>21070</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,03%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18692</t>
+          <t>21512</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15635</t>
+          <t>17859</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22274</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>34417</t>
+          <t>38831</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>29932</t>
+          <t>33439</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>39360</t>
+          <t>44320</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58568</t>
+          <t>66101</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>54563</t>
+          <t>61831</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>62057</t>
+          <t>69715</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>70,87%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,02%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>78848</t>
+          <t>90151</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>74537</t>
+          <t>85620</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82534</t>
+          <t>94877</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>71,59%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>137415</t>
+          <t>156252</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>131736</t>
+          <t>149776</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>143003</t>
+          <t>162096</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>71,28%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>74,18%</t>
+          <t>74,2%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13173</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10261</t>
+          <t>11011</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16618</t>
+          <t>17646</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6666</t>
+          <t>5620</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4590</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8988</t>
+          <t>7743</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>19839</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>16172</t>
+          <t>15755</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>24192</t>
+          <t>23394</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28916</t>
+          <t>27844</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24305</t>
+          <t>24152</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33272</t>
+          <t>32842</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,22 +1796,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10007</t>
+          <t>9338</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7392</t>
+          <t>7095</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12839</t>
+          <t>12179</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>38923</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>33666</t>
+          <t>32593</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>44302</t>
+          <t>43401</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>122352</t>
+          <t>115566</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>117179</t>
+          <t>110402</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>127257</t>
+          <t>120068</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>74,4%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>47289</t>
+          <t>46417</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>43846</t>
+          <t>43317</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>50317</t>
+          <t>49075</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>73,93%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>68,55%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>169640</t>
+          <t>161983</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>164002</t>
+          <t>155265</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>175997</t>
+          <t>167351</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>76,57%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16479</t>
+          <t>15876</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13171</t>
+          <t>12896</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20140</t>
+          <t>19755</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16403</t>
+          <t>17547</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13072</t>
+          <t>14350</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20152</t>
+          <t>21615</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,27 +2174,27 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>32882</t>
+          <t>33423</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28161</t>
+          <t>28451</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>38057</t>
+          <t>38639</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>36656</t>
+          <t>35820</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32306</t>
+          <t>31075</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>41750</t>
+          <t>40214</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37878</t>
+          <t>35055</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32906</t>
+          <t>30605</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>43532</t>
+          <t>40135</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>74534</t>
+          <t>70875</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>67513</t>
+          <t>64098</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>81754</t>
+          <t>77271</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>122962</t>
+          <t>123397</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>117527</t>
+          <t>118440</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>128211</t>
+          <t>129053</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>67,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>127736</t>
+          <t>135792</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>121976</t>
+          <t>130010</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>133389</t>
+          <t>141289</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>70,18%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>250699</t>
+          <t>259189</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>242675</t>
+          <t>251595</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>258541</t>
+          <t>267047</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>67,76%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>72,19%</t>
+          <t>73,47%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8435</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7275</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5452</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>8728</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>13579</t>
+          <t>12776</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>10831</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>17146</t>
+          <t>15865</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11254</t>
+          <t>10661</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8812</t>
+          <t>8234</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13902</t>
+          <t>13488</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,32 +2708,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26786</t>
+          <t>24372</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22713</t>
+          <t>20586</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>31094</t>
+          <t>28346</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2743,32 +2743,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>38040</t>
+          <t>35033</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>33747</t>
+          <t>30779</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>43979</t>
+          <t>39773</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>19,74%</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>61531</t>
+          <t>60516</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>58202</t>
+          <t>57373</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>64567</t>
+          <t>63544</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>77,8%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>73,59%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2821,32 +2821,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>99019</t>
+          <t>93184</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>94077</t>
+          <t>89002</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>103705</t>
+          <t>97326</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>74,41%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>77,93%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2856,32 +2856,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>160550</t>
+          <t>153700</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>154153</t>
+          <t>148222</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>165548</t>
+          <t>158559</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>78,69%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4478</t>
+          <t>6347</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5006</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>9707</t>
+          <t>9972</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>9898</t>
+          <t>11126</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>7604</t>
+          <t>8303</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>13094</t>
+          <t>14598</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>12657</t>
+          <t>13171</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10202</t>
+          <t>10413</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>15522</t>
+          <t>16107</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21419</t>
+          <t>21928</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>17844</t>
+          <t>18411</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25382</t>
+          <t>25601</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,32 +3199,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>34076</t>
+          <t>35099</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>29730</t>
+          <t>30911</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>38555</t>
+          <t>40144</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>20,36%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,04%</t>
+          <t>23,25%</t>
         </is>
       </c>
     </row>
@@ -3242,32 +3242,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>31595</t>
+          <t>34030</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28831</t>
+          <t>30641</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>34226</t>
+          <t>37079</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>61,26%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>72,72%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3277,32 +3277,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>91776</t>
+          <t>92434</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>87651</t>
+          <t>88327</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>95787</t>
+          <t>96513</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>76,3%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>79,64%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>123371</t>
+          <t>126464</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>118137</t>
+          <t>121401</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>128224</t>
+          <t>131917</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>76,39%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>61762</t>
+          <t>64265</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>55403</t>
+          <t>57417</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>69088</t>
+          <t>72107</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>63625</t>
+          <t>68216</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>57206</t>
+          <t>61415</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>70558</t>
+          <t>76651</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>125387</t>
+          <t>132481</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>116391</t>
+          <t>123284</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>134996</t>
+          <t>142874</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>132892</t>
+          <t>135998</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>123915</t>
+          <t>127063</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>142654</t>
+          <t>145756</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>146173</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>133534</t>
+          <t>136954</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>153151</t>
+          <t>156957</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>275923</t>
+          <t>282172</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>263048</t>
+          <t>268218</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>289408</t>
+          <t>295883</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>503907</t>
+          <t>521143</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>493161</t>
+          <t>510308</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>513960</t>
+          <t>532458</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>70,6%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>548803</t>
+          <t>582541</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>537342</t>
+          <t>569892</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>560054</t>
+          <t>593197</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>71,13%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1052709</t>
+          <t>1103684</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1037113</t>
+          <t>1087995</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1068013</t>
+          <t>1118809</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>72,4%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4175,12 +4175,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14313</t>
+          <t>14672</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34025</t>
+          <t>33459</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17177</t>
+          <t>17649</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34003</t>
+          <t>34779</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>36879</t>
+          <t>36376</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>62915</t>
+          <t>62054</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,33%</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78162</t>
+          <t>78351</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>114464</t>
+          <t>113973</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,32%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46816</t>
+          <t>45419</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>68986</t>
+          <t>68777</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4338,12 +4338,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>131173</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>173083</t>
+          <t>175985</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4373,12 +4373,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>26,47%</t>
         </is>
       </c>
     </row>
@@ -4401,12 +4401,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>229968</t>
+          <t>231226</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>267753</t>
+          <t>267579</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4416,12 +4416,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,02%</t>
+          <t>72,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>201965</t>
+          <t>202252</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>227698</t>
+          <t>228428</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>67,73%</t>
+          <t>67,83%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>76,61%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>441431</t>
+          <t>438635</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>487975</t>
+          <t>487231</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4486,12 +4486,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>66,4%</t>
+          <t>65,97%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>73,28%</t>
         </is>
       </c>
     </row>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13442</t>
+          <t>13936</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33023</t>
+          <t>32732</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19609</t>
+          <t>19894</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>37347</t>
+          <t>36783</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>37286</t>
+          <t>37493</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>61529</t>
+          <t>62894</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>10,77%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>49677</t>
+          <t>50129</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79494</t>
+          <t>79692</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>24,59%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50954</t>
+          <t>51287</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75272</t>
+          <t>75784</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>108710</t>
+          <t>109506</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>147645</t>
+          <t>148583</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>25,44%</t>
         </is>
       </c>
     </row>
@@ -4857,12 +4857,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>221190</t>
+          <t>220863</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>253957</t>
+          <t>253343</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>68,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,37%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>156777</t>
+          <t>155825</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>183354</t>
+          <t>182930</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4907,12 +4907,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>59,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>385778</t>
+          <t>386367</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>429279</t>
+          <t>430001</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>66,04%</t>
+          <t>66,14%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,49%</t>
+          <t>73,61%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4247</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41294</t>
+          <t>41313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>3271</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12160</t>
+          <t>12063</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>7073</t>
+          <t>6759</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>47435</t>
+          <t>44628</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,79%</t>
         </is>
       </c>
     </row>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13482</t>
+          <t>14736</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>111978</t>
+          <t>114178</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>24,02%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>18737</t>
+          <t>19805</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35331</t>
+          <t>35460</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,21%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>24912</t>
+          <t>29168</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>142116</t>
+          <t>141812</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>24,75%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>327701</t>
+          <t>324682</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>455946</t>
+          <t>455284</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,93%</t>
+          <t>68,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,9%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>55978</t>
+          <t>55804</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72518</t>
+          <t>72106</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>57,38%</t>
+          <t>57,2%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>387874</t>
+          <t>391788</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>542283</t>
+          <t>533567</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>68,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,64%</t>
+          <t>93,12%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16059</t>
+          <t>17509</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35833</t>
+          <t>35496</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12392</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52067</t>
+          <t>52027</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31952</t>
+          <t>30189</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>74828</t>
+          <t>76669</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>100461</t>
+          <t>102922</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>142182</t>
+          <t>145011</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,81%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>111926</t>
+          <t>110300</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>497188</t>
+          <t>462499</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>78,03%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>232774</t>
+          <t>233184</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>711268</t>
+          <t>692959</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>60,72%</t>
+          <t>59,16%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>366576</t>
+          <t>363759</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>410772</t>
+          <t>408236</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>76,43%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>127560</t>
+          <t>157038</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>479541</t>
+          <t>480460</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5819,12 +5819,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>421794</t>
+          <t>440192</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>869516</t>
+          <t>869743</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>37,58%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>74,23%</t>
+          <t>74,25%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9055</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>24618</t>
+          <t>23500</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15026</t>
+          <t>15086</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>36915</t>
+          <t>37108</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>28599</t>
+          <t>27723</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>55572</t>
+          <t>55017</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>8,64%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27422</t>
+          <t>26630</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50955</t>
+          <t>50769</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>46932</t>
+          <t>46092</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>101286</t>
+          <t>100867</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>83473</t>
+          <t>80230</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>141789</t>
+          <t>138868</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>144966</t>
+          <t>144685</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>171862</t>
+          <t>172004</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>80,98%</t>
+          <t>81,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>292404</t>
+          <t>291022</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>360488</t>
+          <t>361945</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>68,51%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>448921</t>
+          <t>450451</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>522193</t>
+          <t>528576</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>70,47%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>81,97%</t>
+          <t>82,98%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2764</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23127</t>
+          <t>23991</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>23330</t>
+          <t>22686</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>46951</t>
+          <t>45633</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>29128</t>
+          <t>30136</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>60389</t>
+          <t>59226</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9837</t>
+          <t>10372</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37187</t>
+          <t>39270</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>23,55%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91080</t>
+          <t>91014</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>130424</t>
+          <t>130652</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>108485</t>
+          <t>106074</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>155937</t>
+          <t>155224</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>23,59%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>119452</t>
+          <t>116794</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>151195</t>
+          <t>149538</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>70,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>89,67%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>327752</t>
+          <t>329356</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>370274</t>
+          <t>371069</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>66,73%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>75,38%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>457113</t>
+          <t>458355</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>509847</t>
+          <t>511480</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>69,66%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,74%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>72795</t>
+          <t>72696</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>136710</t>
+          <t>139204</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6931,7 +6931,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>105507</t>
+          <t>104446</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>177564</t>
+          <t>176954</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>212688</t>
+          <t>199954</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>301741</t>
+          <t>303510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>257799</t>
+          <t>241407</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>453924</t>
+          <t>452131</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>435604</t>
+          <t>442454</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1122975</t>
+          <t>1082455</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>791331</t>
+          <t>801181</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1504598</t>
+          <t>1525415</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>18,68%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1500859</t>
+          <t>1500432</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1745490</t>
+          <t>1766264</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>72,18%</t>
+          <t>72,16%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1007343</t>
+          <t>1024677</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1613624</t>
+          <t>1605587</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>45,6%</t>
+          <t>46,39%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>72,68%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2560369</t>
+          <t>2549696</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>3251357</t>
+          <t>3238736</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>59,71%</t>
+          <t>59,46%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>75,82%</t>
+          <t>75,53%</t>
         </is>
       </c>
     </row>
@@ -11043,12 +11043,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62543</t>
+          <t>61866</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>80233</t>
+          <t>79763</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11058,12 +11058,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,41%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -11078,12 +11078,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>79592</t>
+          <t>79333</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>98644</t>
+          <t>99585</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -11093,12 +11093,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>46,88%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11113,12 +11113,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>146081</t>
+          <t>145800</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>172321</t>
+          <t>172562</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40637</t>
+          <t>40378</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57941</t>
+          <t>57848</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11171,12 +11171,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11191,12 +11191,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39015</t>
+          <t>38311</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>56088</t>
+          <t>55792</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11206,12 +11206,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11226,12 +11226,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>83993</t>
+          <t>84316</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>108036</t>
+          <t>108186</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11241,12 +11241,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -11269,12 +11269,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75905</t>
+          <t>76251</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95335</t>
+          <t>95173</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11284,12 +11284,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11304,12 +11304,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>64957</t>
+          <t>65261</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>84074</t>
+          <t>83770</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11319,12 +11319,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>39,96%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11339,12 +11339,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>147361</t>
+          <t>146901</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>174079</t>
+          <t>173525</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11354,12 +11354,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>41,71%</t>
         </is>
       </c>
     </row>
@@ -11499,12 +11499,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40354</t>
+          <t>40085</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55753</t>
+          <t>55305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11514,12 +11514,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11534,12 +11534,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58786</t>
+          <t>58982</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>75806</t>
+          <t>76427</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11549,12 +11549,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>104761</t>
+          <t>104652</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>126891</t>
+          <t>127022</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11584,12 +11584,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>43,21%</t>
         </is>
       </c>
     </row>
@@ -11612,12 +11612,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22770</t>
+          <t>22506</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35562</t>
+          <t>35202</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11627,12 +11627,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11647,12 +11647,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32022</t>
+          <t>32076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47055</t>
+          <t>46542</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11662,12 +11662,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11682,12 +11682,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>58643</t>
+          <t>58009</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>77503</t>
+          <t>77003</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11697,12 +11697,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>26,19%</t>
         </is>
       </c>
     </row>
@@ -11725,12 +11725,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41251</t>
+          <t>41580</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56657</t>
+          <t>56643</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,01%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,34%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -11760,12 +11760,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54445</t>
+          <t>53980</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>71924</t>
+          <t>70781</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>98991</t>
+          <t>100067</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>122805</t>
+          <t>122252</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>41,58%</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20463</t>
+          <t>20241</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34100</t>
+          <t>34360</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11970,12 +11970,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12853</t>
+          <t>12609</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>24620</t>
+          <t>23529</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -12005,12 +12005,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -12025,12 +12025,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>36154</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>54122</t>
+          <t>54746</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -12040,12 +12040,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -12068,12 +12068,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13859</t>
+          <t>14368</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25473</t>
+          <t>25522</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12083,12 +12083,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12103,12 +12103,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8915</t>
+          <t>9138</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19173</t>
+          <t>19256</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26035</t>
+          <t>25719</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>41753</t>
+          <t>41905</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>27,29%</t>
         </is>
       </c>
     </row>
@@ -12181,12 +12181,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>42156</t>
+          <t>41798</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58419</t>
+          <t>57648</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12196,12 +12196,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>60,76%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19680</t>
+          <t>20035</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31586</t>
+          <t>32023</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>55,02%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>66016</t>
+          <t>65940</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>86303</t>
+          <t>86020</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>56,02%</t>
         </is>
       </c>
     </row>
@@ -12411,12 +12411,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40776</t>
+          <t>40304</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59532</t>
+          <t>58494</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12426,12 +12426,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51577</t>
+          <t>51536</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>71807</t>
+          <t>70658</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12461,12 +12461,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12481,12 +12481,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>97114</t>
+          <t>96759</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>125658</t>
+          <t>124636</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12496,12 +12496,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>38,7%</t>
         </is>
       </c>
     </row>
@@ -12524,12 +12524,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28150</t>
+          <t>28143</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43946</t>
+          <t>43714</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -12559,12 +12559,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25416</t>
+          <t>25892</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40314</t>
+          <t>40430</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -12574,12 +12574,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>57611</t>
+          <t>56720</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>79200</t>
+          <t>79169</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -12609,12 +12609,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,58%</t>
         </is>
       </c>
     </row>
@@ -12637,12 +12637,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67944</t>
+          <t>67786</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>89837</t>
+          <t>89391</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12652,12 +12652,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12672,12 +12672,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>55484</t>
+          <t>56474</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>75158</t>
+          <t>75825</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12687,12 +12687,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12707,12 +12707,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>129202</t>
+          <t>128925</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>160066</t>
+          <t>158279</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12722,12 +12722,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -12867,12 +12867,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11861</t>
+          <t>12012</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>22835</t>
+          <t>23263</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12882,12 +12882,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12902,12 +12902,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25586</t>
+          <t>25085</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>39419</t>
+          <t>39491</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12917,12 +12917,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12937,12 +12937,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>39260</t>
+          <t>40969</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>57966</t>
+          <t>59954</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12952,12 +12952,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>40,47%</t>
         </is>
       </c>
     </row>
@@ -12980,12 +12980,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7499</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17768</t>
+          <t>17487</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12995,12 +12995,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -13015,12 +13015,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8891</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20629</t>
+          <t>21612</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -13030,12 +13030,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -13050,12 +13050,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>19420</t>
+          <t>19229</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>34635</t>
+          <t>35457</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13065,12 +13065,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>23,93%</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18805</t>
+          <t>18604</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30788</t>
+          <t>30807</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13108,12 +13108,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13128,12 +13128,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40910</t>
+          <t>40699</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>56281</t>
+          <t>56686</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13143,12 +13143,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>62902</t>
+          <t>61907</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>84141</t>
+          <t>83306</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>56,79%</t>
+          <t>56,23%</t>
         </is>
       </c>
     </row>
@@ -13323,12 +13323,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8700</t>
+          <t>8499</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18960</t>
+          <t>18441</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -13338,12 +13338,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -13358,12 +13358,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13553</t>
+          <t>13617</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>24334</t>
+          <t>24022</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -13373,12 +13373,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -13393,12 +13393,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>25196</t>
+          <t>24508</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>39756</t>
+          <t>39075</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -13408,12 +13408,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>40,28%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -13436,12 +13436,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3775</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9955</t>
+          <t>9774</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>27,24%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>9788</t>
+          <t>9641</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>18985</t>
+          <t>19309</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>30,54%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -13506,12 +13506,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>14666</t>
+          <t>15340</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>25398</t>
+          <t>26587</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -13549,12 +13549,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11752</t>
+          <t>12218</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21964</t>
+          <t>22145</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>60,1%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13584,12 +13584,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>23905</t>
+          <t>24682</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>35261</t>
+          <t>35638</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>56,73%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13624,7 +13624,7 @@
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>54839</t>
+          <t>54895</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13639,7 +13639,7 @@
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>55,62%</t>
         </is>
       </c>
     </row>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>205829</t>
+          <t>204313</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>244813</t>
+          <t>243412</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13814,12 +13814,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>266749</t>
+          <t>264878</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>303789</t>
+          <t>305710</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13829,12 +13829,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13849,12 +13849,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>484009</t>
+          <t>482992</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>538096</t>
+          <t>537794</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13864,12 +13864,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>37,54%</t>
         </is>
       </c>
     </row>
@@ -13892,12 +13892,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>136862</t>
+          <t>135763</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>167359</t>
+          <t>167023</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13907,12 +13907,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -13927,12 +13927,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>143369</t>
+          <t>144467</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>174284</t>
+          <t>177406</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13942,12 +13942,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>23,17%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13962,12 +13962,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>286592</t>
+          <t>289161</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>335920</t>
+          <t>336322</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13977,12 +13977,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>23,48%</t>
         </is>
       </c>
     </row>
@@ -14005,12 +14005,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>284856</t>
+          <t>284295</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>323764</t>
+          <t>324801</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -14040,12 +14040,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>287171</t>
+          <t>287339</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>327501</t>
+          <t>327615</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>43,53%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14075,12 +14075,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>584102</t>
+          <t>579546</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>639514</t>
+          <t>641708</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14090,12 +14090,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>44,8%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_RUIDO_INT-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14784</t>
+          <t>24947</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12006</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18792</t>
+          <t>36616</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>36</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17600</t>
+          <t>27299</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14137</t>
+          <t>19351</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22028</t>
+          <t>37286</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>32384</t>
+          <t>52246</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>27412</t>
+          <t>39963</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>37453</t>
+          <t>68253</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31184</t>
+          <t>104318</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26040</t>
+          <t>87359</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36038</t>
+          <t>123966</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33969</t>
+          <t>63734</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28908</t>
+          <t>50721</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38564</t>
+          <t>76619</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>195</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>65152</t>
+          <t>168052</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>57837</t>
+          <t>146362</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>71135</t>
+          <t>193201</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>23,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>26,75%</t>
         </is>
       </c>
     </row>
@@ -957,107 +957,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>622</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>121532</t>
+          <t>266122</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>116250</t>
+          <t>245621</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>126704</t>
+          <t>285400</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>72,56%</t>
+          <t>67,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,4%</t>
+          <t>62,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>327</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>124564</t>
+          <t>235847</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119224</t>
+          <t>220971</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>130346</t>
+          <t>249584</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>72,15%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>67,69%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>598</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>246096</t>
+          <t>501969</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>238160</t>
+          <t>474288</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>253440</t>
+          <t>525948</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>69,31%</t>
+          <t>65,67%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>73,75%</t>
+          <t>72,82%</t>
         </is>
       </c>
     </row>
@@ -1070,22 +1070,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>454</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1140,22 +1140,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>853</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9462</t>
+          <t>22630</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>14946</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12305</t>
+          <t>35285</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13922</t>
+          <t>30360</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10684</t>
+          <t>22843</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17579</t>
+          <t>40734</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>23384</t>
+          <t>52989</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>19598</t>
+          <t>41270</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>27936</t>
+          <t>68091</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>10,79%</t>
         </is>
       </c>
     </row>
@@ -1300,107 +1300,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17319</t>
+          <t>69096</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13982</t>
+          <t>55197</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21070</t>
+          <t>86464</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21512</t>
+          <t>68010</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17859</t>
+          <t>54824</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25237</t>
+          <t>81141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>19,11%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>156</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>38831</t>
+          <t>137106</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>33439</t>
+          <t>117885</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>44320</t>
+          <t>158565</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>25,12%</t>
         </is>
       </c>
     </row>
@@ -1413,107 +1413,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>241</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66101</t>
+          <t>252621</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61831</t>
+          <t>233291</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>69715</t>
+          <t>267934</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>71,17%</t>
+          <t>73,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,57%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>75,06%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90151</t>
+          <t>188571</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>85620</t>
+          <t>173464</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>94877</t>
+          <t>202785</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>65,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>60,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>70,67%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>506</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>156252</t>
+          <t>441192</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>149776</t>
+          <t>417285</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>162096</t>
+          <t>463246</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>68,56%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>73,38%</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1561,22 +1561,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1596,22 +1596,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1643,107 +1643,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13768</t>
+          <t>17330</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11011</t>
+          <t>10514</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17646</t>
+          <t>28338</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5620</t>
+          <t>7301</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3839</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7743</t>
+          <t>13153</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>19387</t>
+          <t>24631</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>15755</t>
+          <t>16540</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>23394</t>
+          <t>35589</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>9,57%</t>
         </is>
       </c>
     </row>
@@ -1756,107 +1756,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27844</t>
+          <t>58733</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24152</t>
+          <t>45474</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32842</t>
+          <t>73179</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>17,45%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9338</t>
+          <t>29725</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7095</t>
+          <t>22095</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>12179</t>
+          <t>39757</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>37182</t>
+          <t>88458</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>32593</t>
+          <t>74068</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>43401</t>
+          <t>107096</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>28,79%</t>
         </is>
       </c>
     </row>
@@ -1869,107 +1869,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>115566</t>
+          <t>184493</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>110402</t>
+          <t>167977</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>120068</t>
+          <t>198145</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>70,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,24%</t>
+          <t>64,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>115</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46417</t>
+          <t>74461</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>43317</t>
+          <t>64785</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>49075</t>
+          <t>83485</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>74,88%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>303</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>161983</t>
+          <t>258954</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>155265</t>
+          <t>240598</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>167351</t>
+          <t>276625</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>74,12%</t>
+          <t>69,6%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>71,04%</t>
+          <t>64,67%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>74,35%</t>
         </is>
       </c>
     </row>
@@ -1982,22 +1982,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2017,22 +2017,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2052,22 +2052,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2099,107 +2099,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15876</t>
+          <t>33795</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12896</t>
+          <t>24351</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19755</t>
+          <t>46504</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,28%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17547</t>
+          <t>37318</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14350</t>
+          <t>27752</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21615</t>
+          <t>50158</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>79</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>33423</t>
+          <t>71113</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28451</t>
+          <t>55826</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>38639</t>
+          <t>87461</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -2212,107 +2212,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35820</t>
+          <t>142193</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31075</t>
+          <t>121479</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40214</t>
+          <t>168114</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>124</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>35055</t>
+          <t>93456</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30605</t>
+          <t>76719</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40135</t>
+          <t>109957</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>251</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>70875</t>
+          <t>235649</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>64098</t>
+          <t>210590</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>77271</t>
+          <t>264875</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>19,5%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>19,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>21,26%</t>
+          <t>24,13%</t>
         </is>
       </c>
     </row>
@@ -2325,107 +2325,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>400</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>123397</t>
+          <t>430945</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>118440</t>
+          <t>405082</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129053</t>
+          <t>455203</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>70,48%</t>
+          <t>71,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,64%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>501</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>135792</t>
+          <t>359975</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>130010</t>
+          <t>342081</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>141289</t>
+          <t>376774</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>73,35%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>69,71%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>76,78%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>901</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>259189</t>
+          <t>790920</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>251595</t>
+          <t>755070</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>267047</t>
+          <t>819784</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>71,31%</t>
+          <t>72,05%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>69,22%</t>
+          <t>68,79%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>73,47%</t>
+          <t>74,68%</t>
         </is>
       </c>
     </row>
@@ -2438,22 +2438,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>606933</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>606933</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>606933</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2473,22 +2473,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2508,22 +2508,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097682</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097682</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>1097682</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2555,107 +2555,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>18004</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4460</t>
+          <t>10333</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>26791</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>32829</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>23772</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>8728</t>
+          <t>43555</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>12776</t>
+          <t>50833</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>9722</t>
+          <t>39225</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>64316</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -2668,107 +2668,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10661</t>
+          <t>42091</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8234</t>
+          <t>30958</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13488</t>
+          <t>57503</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>24372</t>
+          <t>92153</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20586</t>
+          <t>77566</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>28346</t>
+          <t>107984</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>169</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>35033</t>
+          <t>134244</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>30779</t>
+          <t>115346</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>39773</t>
+          <t>156075</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>23,6%</t>
         </is>
       </c>
     </row>
@@ -2781,107 +2781,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>176</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>60516</t>
+          <t>194234</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57373</t>
+          <t>177942</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>63544</t>
+          <t>207579</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>78,08%</t>
+          <t>76,37%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>74,02%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>409</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>93184</t>
+          <t>282163</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>89002</t>
+          <t>265285</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>97326</t>
+          <t>297264</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>75,15%</t>
+          <t>69,3%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>65,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>907</t>
+          <t>585</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>153700</t>
+          <t>476398</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>148222</t>
+          <t>452697</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>158559</t>
+          <t>496373</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>73,56%</t>
+          <t>68,44%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>78,69%</t>
+          <t>75,04%</t>
         </is>
       </c>
     </row>
@@ -2894,22 +2894,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,22 +2929,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>584</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>407146</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>407146</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>407146</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,22 +2964,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>817</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661475</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661475</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>661475</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,107 +3011,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4045</t>
+          <t>10706</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6347</t>
+          <t>23867</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>7081</t>
+          <t>37646</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5069</t>
+          <t>26790</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>9972</t>
+          <t>52705</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>11126</t>
+          <t>48352</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>8303</t>
+          <t>35091</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>14598</t>
+          <t>66843</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>9,31%</t>
         </is>
       </c>
     </row>
@@ -3124,107 +3124,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13171</t>
+          <t>20577</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10413</t>
+          <t>10500</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16107</t>
+          <t>37551</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>143</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>21928</t>
+          <t>118374</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>18411</t>
+          <t>100104</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>25601</t>
+          <t>141430</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>153</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>35099</t>
+          <t>138951</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>30911</t>
+          <t>117198</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>40144</t>
+          <t>166043</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>23,14%</t>
         </is>
       </c>
     </row>
@@ -3237,107 +3237,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>34030</t>
+          <t>138215</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>30641</t>
+          <t>119102</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37079</t>
+          <t>150488</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>66,41%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>70,27%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>72,36%</t>
+          <t>88,79%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>516</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>92434</t>
+          <t>392141</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>88327</t>
+          <t>369160</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>96513</t>
+          <t>413046</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>75,35%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>578</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>126464</t>
+          <t>530356</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>121401</t>
+          <t>499605</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>131917</t>
+          <t>554232</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>73,23%</t>
+          <t>73,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>70,3%</t>
+          <t>69,62%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>77,23%</t>
         </is>
       </c>
     </row>
@@ -3350,22 +3350,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3385,22 +3385,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>700</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3420,22 +3420,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>778</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3467,107 +3467,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>64265</t>
+          <t>127411</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>57417</t>
+          <t>106591</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>72107</t>
+          <t>154597</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>172753</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>150715</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>196662</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
           <t>7,96%</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>10,0%</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>372</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>68216</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>61415</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>76651</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>8,56%</t>
-        </is>
-      </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>340</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>132481</t>
+          <t>300164</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>123284</t>
+          <t>266026</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>142874</t>
+          <t>335352</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -3580,107 +3580,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>407</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>135998</t>
+          <t>437008</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>127063</t>
+          <t>397378</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>145756</t>
+          <t>479972</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>612</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>146173</t>
+          <t>465452</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>136954</t>
+          <t>433552</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>156957</t>
+          <t>499819</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>23,02%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>282172</t>
+          <t>902460</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>268218</t>
+          <t>845912</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>295883</t>
+          <t>952842</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>22,67%</t>
         </is>
       </c>
     </row>
@@ -3693,107 +3693,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>2907</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>521143</t>
+          <t>1466629</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>510308</t>
+          <t>1420867</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>532458</t>
+          <t>1510556</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>72,24%</t>
+          <t>72,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>69,96%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>74,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>2133</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>582541</t>
+          <t>1533159</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>569892</t>
+          <t>1494515</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>593197</t>
+          <t>1569633</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>68,83%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>74,44%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1103684</t>
+          <t>2999788</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>1087995</t>
+          <t>2940353</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>1118809</t>
+          <t>3059642</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>71,38%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>71,66%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>72,81%</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031048</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031048</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>2031048</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3841,22 +3841,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2171364</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2171364</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>2171364</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3876,22 +3876,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>4830</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202412</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202412</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>4202412</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3980,7 +3980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Andalucia (tasa de respuesta: 99,88%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4165,107 +4165,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>218</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22579</t>
+          <t>70853</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14672</t>
+          <t>61866</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33459</t>
+          <t>79763</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25207</t>
+          <t>88952</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17649</t>
+          <t>79333</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34779</t>
+          <t>99585</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>488</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>47786</t>
+          <t>159806</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>36376</t>
+          <t>145800</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>62054</t>
+          <t>172562</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -4278,107 +4278,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94756</t>
+          <t>49097</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78351</t>
+          <t>40378</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>113973</t>
+          <t>57848</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>128</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57398</t>
+          <t>46966</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45419</t>
+          <t>38311</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>68777</t>
+          <t>55792</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>22,32%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>266</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>152154</t>
+          <t>96063</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>84316</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>175985</t>
+          <t>108186</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>20,27%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>26,0%</t>
         </is>
       </c>
     </row>
@@ -4391,107 +4391,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>249348</t>
+          <t>85692</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>231226</t>
+          <t>76251</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>267579</t>
+          <t>95173</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,0%</t>
+          <t>41,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>37,08%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>215566</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>202252</t>
+          <t>65261</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>228428</t>
+          <t>83770</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>72,3%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>76,61%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>461</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>464914</t>
+          <t>160170</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>438635</t>
+          <t>146901</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>487231</t>
+          <t>173525</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>69,93%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>65,97%</t>
+          <t>35,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>41,71%</t>
         </is>
       </c>
     </row>
@@ -4504,22 +4504,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205642</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4539,22 +4539,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4574,22 +4574,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>416039</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4621,107 +4621,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21298</t>
+          <t>47787</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13936</t>
+          <t>40085</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32732</t>
+          <t>55305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>26907</t>
+          <t>67937</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>19894</t>
+          <t>58982</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>36783</t>
+          <t>76427</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>40,19%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>34,89%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>281</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>48205</t>
+          <t>115724</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>37493</t>
+          <t>104652</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>62894</t>
+          <t>127022</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>43,21%</t>
         </is>
       </c>
     </row>
@@ -4734,107 +4734,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>63989</t>
+          <t>28524</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>50129</t>
+          <t>22506</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79692</t>
+          <t>35202</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63012</t>
+          <t>38784</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51287</t>
+          <t>32076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>75784</t>
+          <t>46542</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>174</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>127001</t>
+          <t>67308</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>109506</t>
+          <t>58009</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>148583</t>
+          <t>77003</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>26,19%</t>
         </is>
       </c>
     </row>
@@ -4847,107 +4847,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>238760</t>
+          <t>48637</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>220863</t>
+          <t>41580</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>253343</t>
+          <t>56643</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,16%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,18%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>164</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>170162</t>
+          <t>62321</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>155825</t>
+          <t>53980</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>182930</t>
+          <t>70781</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>36,87%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>70,34%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>275</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>408922</t>
+          <t>110958</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>386367</t>
+          <t>100067</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>430001</t>
+          <t>122252</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>37,74%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>41,58%</t>
         </is>
       </c>
     </row>
@@ -4960,22 +4960,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4995,22 +4995,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>430</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>169043</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5030,22 +5030,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>730</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293990</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5077,107 +5077,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>26590</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>20241</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>41313</t>
+          <t>34360</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>35,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6663</t>
+          <t>18083</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3271</t>
+          <t>12609</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12063</t>
+          <t>23529</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>23430</t>
+          <t>44673</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>6759</t>
+          <t>36154</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>44628</t>
+          <t>54746</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>29,09%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>35,65%</t>
         </is>
       </c>
     </row>
@@ -5190,107 +5190,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50674</t>
+          <t>19563</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14736</t>
+          <t>14368</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>114178</t>
+          <t>25522</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>20,35%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26653</t>
+          <t>13712</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19805</t>
+          <t>9138</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35460</t>
+          <t>19256</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>77328</t>
+          <t>33275</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>29168</t>
+          <t>25719</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>141812</t>
+          <t>41905</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>27,29%</t>
         </is>
       </c>
     </row>
@@ -5303,107 +5303,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>407982</t>
+          <t>50000</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>324682</t>
+          <t>41798</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>455284</t>
+          <t>57648</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>85,81%</t>
+          <t>52,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>59,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>67</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>64248</t>
+          <t>25609</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>55804</t>
+          <t>20035</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>72106</t>
+          <t>32023</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>65,85%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>73,91%</t>
+          <t>55,79%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>168</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>472230</t>
+          <t>75609</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>391788</t>
+          <t>65940</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>533567</t>
+          <t>86020</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>42,94%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>56,02%</t>
         </is>
       </c>
     </row>
@@ -5416,22 +5416,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5451,22 +5451,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5486,22 +5486,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5533,107 +5533,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25426</t>
+          <t>49397</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17509</t>
+          <t>40304</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35496</t>
+          <t>58494</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31605</t>
+          <t>60886</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>51536</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52027</t>
+          <t>70658</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>38,32%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>223</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>57031</t>
+          <t>110283</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>30189</t>
+          <t>96759</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>76669</t>
+          <t>124636</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>38,7%</t>
         </is>
       </c>
     </row>
@@ -5646,107 +5646,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>121393</t>
+          <t>35340</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>102922</t>
+          <t>28143</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>145011</t>
+          <t>43714</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>285223</t>
+          <t>32423</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>110300</t>
+          <t>25892</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>462499</t>
+          <t>40430</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>16,29%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>72,58%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>155</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>406616</t>
+          <t>67764</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>233184</t>
+          <t>56720</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>692959</t>
+          <t>79169</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>24,58%</t>
         </is>
       </c>
     </row>
@@ -5759,107 +5759,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>387318</t>
+          <t>78404</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>363759</t>
+          <t>67786</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>408236</t>
+          <t>89391</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>48,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,43%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>320375</t>
+          <t>65599</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>157038</t>
+          <t>56474</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>480460</t>
+          <t>75825</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>41,28%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>24,64%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>75,4%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>290</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>707693</t>
+          <t>144004</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>440192</t>
+          <t>128925</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>869743</t>
+          <t>158279</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>60,42%</t>
+          <t>44,71%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>74,25%</t>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -5872,22 +5872,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>534137</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>534137</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>534137</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5907,22 +5907,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5942,22 +5942,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1171341</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1171341</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1171341</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5989,107 +5989,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15341</t>
+          <t>17112</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8224</t>
+          <t>12012</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23500</t>
+          <t>23263</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>31,86%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>43,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26661</t>
+          <t>31989</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>15086</t>
+          <t>25085</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>37108</t>
+          <t>39491</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>42002</t>
+          <t>49101</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>27723</t>
+          <t>40969</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>55017</t>
+          <t>59954</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>40,47%</t>
         </is>
       </c>
     </row>
@@ -6102,107 +6102,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37536</t>
+          <t>12135</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26630</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50769</t>
+          <t>17487</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>79012</t>
+          <t>13800</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>46092</t>
+          <t>9052</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>100867</t>
+          <t>21612</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>116548</t>
+          <t>25935</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>80230</t>
+          <t>19229</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>138868</t>
+          <t>35457</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>23,93%</t>
         </is>
       </c>
     </row>
@@ -6215,107 +6215,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>159342</t>
+          <t>24462</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>144685</t>
+          <t>18604</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>172004</t>
+          <t>30807</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>75,08%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>68,18%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>81,05%</t>
+          <t>57,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>88</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>319138</t>
+          <t>48652</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>291022</t>
+          <t>40699</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>361945</t>
+          <t>56686</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>75,12%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>60,02%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>134</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>478480</t>
+          <t>73114</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>450451</t>
+          <t>61907</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>528576</t>
+          <t>83306</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>75,11%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>41,79%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>56,23%</t>
         </is>
       </c>
     </row>
@@ -6328,22 +6328,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6363,22 +6363,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>424811</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>424811</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>424811</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6398,22 +6398,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>637030</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>637030</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>637030</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6445,107 +6445,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9482</t>
+          <t>13131</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>8499</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>23991</t>
+          <t>18441</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>50,46%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>32098</t>
+          <t>18141</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>22686</t>
+          <t>13617</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>45633</t>
+          <t>24022</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>41580</t>
+          <t>31273</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>30136</t>
+          <t>24508</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>59226</t>
+          <t>39075</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -6558,107 +6558,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>20392</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10372</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39270</t>
+          <t>9774</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>108160</t>
+          <t>13585</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>91014</t>
+          <t>9641</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>130652</t>
+          <t>19309</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>26,6%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>128553</t>
+          <t>19971</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>106074</t>
+          <t>15340</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>155224</t>
+          <t>26587</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,59%</t>
+          <t>26,94%</t>
         </is>
       </c>
     </row>
@@ -6671,107 +6671,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>136886</t>
+          <t>17029</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>116794</t>
+          <t>12218</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>149538</t>
+          <t>22145</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>46,6%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>70,04%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>89,67%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>350929</t>
+          <t>30431</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>329356</t>
+          <t>24682</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>371069</t>
+          <t>35638</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>67,05%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>75,55%</t>
+          <t>57,34%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>117</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>487815</t>
+          <t>47460</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>458355</t>
+          <t>39606</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>511480</t>
+          <t>54895</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>74,14%</t>
+          <t>48,08%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>55,62%</t>
         </is>
       </c>
     </row>
@@ -6784,22 +6784,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6819,22 +6819,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>62157</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>62157</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>62157</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>245</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>98704</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>98704</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>98704</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6901,107 +6901,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>556</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>110894</t>
+          <t>224871</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>72696</t>
+          <t>204313</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>139204</t>
+          <t>243412</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>30,04%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>713</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>149140</t>
+          <t>285988</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>104446</t>
+          <t>264878</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>176954</t>
+          <t>305710</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>260034</t>
+          <t>510859</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>199954</t>
+          <t>482992</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>303510</t>
+          <t>537794</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>37,54%</t>
         </is>
       </c>
     </row>
@@ -7014,107 +7014,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>385</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>388741</t>
+          <t>151045</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>241407</t>
+          <t>135763</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>452131</t>
+          <t>167023</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>19,96%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>619459</t>
+          <t>159271</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>442454</t>
+          <t>144467</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1082455</t>
+          <t>177406</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>777</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>1008200</t>
+          <t>310317</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>801181</t>
+          <t>289161</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1525415</t>
+          <t>336322</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>21,66%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>23,48%</t>
         </is>
       </c>
     </row>
@@ -7127,107 +7127,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1338</t>
+          <t>695</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1579636</t>
+          <t>304226</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1500432</t>
+          <t>284295</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1766264</t>
+          <t>324801</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>75,97%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>72,16%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>47,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>2133</t>
+          <t>750</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1440418</t>
+          <t>307089</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1024677</t>
+          <t>287339</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1605587</t>
+          <t>327615</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>40,82%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>46,39%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>72,68%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>1445</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>3020054</t>
+          <t>611315</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2549696</t>
+          <t>579546</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>3238736</t>
+          <t>641708</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>70,43%</t>
+          <t>42,67%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>59,46%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>75,53%</t>
+          <t>44,8%</t>
         </is>
       </c>
     </row>
@@ -7240,22 +7240,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2079271</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2079271</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2079271</t>
+          <t>680142</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7275,22 +7275,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2209018</t>
+          <t>752349</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2209018</t>
+          <t>752349</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2209018</t>
+          <t>752349</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7310,22 +7310,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4288289</t>
+          <t>1432491</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4288289</t>
+          <t>1432491</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4288289</t>
+          <t>1432491</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción del ruido en el interior de la vivienda en Barcelona (tasa de respuesta: 99,97%)</t>
+          <t>Percepción del ruido en el interior de la vivienda en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -11033,107 +11033,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>70853</t>
+          <t>14784</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61866</t>
+          <t>12006</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79763</t>
+          <t>18792</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>8,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>88952</t>
+          <t>17600</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>79333</t>
+          <t>14137</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>99585</t>
+          <t>22028</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,28%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>47,33%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>163</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>159806</t>
+          <t>32384</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>145800</t>
+          <t>27412</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>172562</t>
+          <t>37453</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>10,9%</t>
         </is>
       </c>
     </row>
@@ -11146,107 +11146,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49097</t>
+          <t>31184</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>40378</t>
+          <t>26040</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57848</t>
+          <t>36038</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,87%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,64%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46966</t>
+          <t>33969</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38311</t>
+          <t>28908</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>55792</t>
+          <t>38564</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>330</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>96063</t>
+          <t>65152</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>84316</t>
+          <t>57837</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>108186</t>
+          <t>71135</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>23,09%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>20,7%</t>
         </is>
       </c>
     </row>
@@ -11259,107 +11259,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>622</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85692</t>
+          <t>121532</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76251</t>
+          <t>116250</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95173</t>
+          <t>126704</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,08%</t>
+          <t>69,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>623</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74478</t>
+          <t>124564</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>65261</t>
+          <t>119224</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>83770</t>
+          <t>130346</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>67,69%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>74,0%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>160170</t>
+          <t>246096</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>146901</t>
+          <t>238160</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>173525</t>
+          <t>253440</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>69,31%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>41,71%</t>
+          <t>73,75%</t>
         </is>
       </c>
     </row>
@@ -11372,22 +11372,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>205642</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11407,22 +11407,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11442,22 +11442,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>416039</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11489,107 +11489,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47787</t>
+          <t>9462</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40085</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>55305</t>
+          <t>12305</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,26%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67937</t>
+          <t>13922</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58982</t>
+          <t>10684</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>76427</t>
+          <t>17579</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>34,89%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>121</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>115724</t>
+          <t>23384</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>104652</t>
+          <t>19598</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>127022</t>
+          <t>27936</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -11602,107 +11602,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28524</t>
+          <t>17319</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22506</t>
+          <t>13982</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35202</t>
+          <t>21070</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38784</t>
+          <t>21512</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32076</t>
+          <t>17859</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46542</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>209</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>67308</t>
+          <t>38831</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>58009</t>
+          <t>33439</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>77003</t>
+          <t>44320</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>19,73%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>20,29%</t>
         </is>
       </c>
     </row>
@@ -11715,107 +11715,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>355</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>48637</t>
+          <t>66101</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41580</t>
+          <t>61831</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56643</t>
+          <t>69715</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,28%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>484</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>62321</t>
+          <t>90151</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>53980</t>
+          <t>85620</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>70781</t>
+          <t>94877</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>68,18%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>41,87%</t>
+          <t>75,55%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>839</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>110958</t>
+          <t>156252</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>100067</t>
+          <t>149776</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>122252</t>
+          <t>162096</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>68,56%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>74,2%</t>
         </is>
       </c>
     </row>
@@ -11828,22 +11828,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11863,22 +11863,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>169043</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11898,22 +11898,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>293990</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11945,107 +11945,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26590</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20241</t>
+          <t>11011</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>34360</t>
+          <t>17646</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18083</t>
+          <t>5620</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12609</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23529</t>
+          <t>7743</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>44673</t>
+          <t>19387</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>36154</t>
+          <t>15755</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>54746</t>
+          <t>23394</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -12058,107 +12058,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19563</t>
+          <t>27844</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14368</t>
+          <t>24152</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25522</t>
+          <t>32842</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,35%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13712</t>
+          <t>9338</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9138</t>
+          <t>7095</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19256</t>
+          <t>12179</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>19,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>219</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>33275</t>
+          <t>37182</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>25719</t>
+          <t>32593</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>41905</t>
+          <t>43401</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>19,86%</t>
         </is>
       </c>
     </row>
@@ -12171,107 +12171,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>685</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50000</t>
+          <t>115566</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>41798</t>
+          <t>110402</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57648</t>
+          <t>120068</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>59,95%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>277</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>25609</t>
+          <t>46417</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>20035</t>
+          <t>43317</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>32023</t>
+          <t>49075</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>75,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>70,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>79,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>962</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>75609</t>
+          <t>161983</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>65940</t>
+          <t>155265</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>86020</t>
+          <t>167351</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>56,02%</t>
+          <t>76,57%</t>
         </is>
       </c>
     </row>
@@ -12284,22 +12284,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12319,22 +12319,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12401,107 +12401,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>49397</t>
+          <t>15876</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40304</t>
+          <t>12896</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58494</t>
+          <t>19755</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,28%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>60886</t>
+          <t>17547</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>51536</t>
+          <t>14350</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>70658</t>
+          <t>21615</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>38,32%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>190</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>110283</t>
+          <t>33423</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>96759</t>
+          <t>28451</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>124636</t>
+          <t>38639</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -12514,107 +12514,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35340</t>
+          <t>35820</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28143</t>
+          <t>31075</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43714</t>
+          <t>40214</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>203</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>32423</t>
+          <t>35055</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25892</t>
+          <t>30605</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40430</t>
+          <t>40135</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>18,61%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>21,3%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>412</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>67764</t>
+          <t>70875</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>56720</t>
+          <t>64098</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>79169</t>
+          <t>77271</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>19,5%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -12627,107 +12627,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>708</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>78404</t>
+          <t>123397</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>67786</t>
+          <t>118440</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>89391</t>
+          <t>129053</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>48,06%</t>
+          <t>70,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>41,55%</t>
+          <t>67,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>54,79%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>749</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>65599</t>
+          <t>135792</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>56474</t>
+          <t>130010</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>75825</t>
+          <t>141289</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>72,08%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>47,72%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>1457</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>144004</t>
+          <t>259189</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>128925</t>
+          <t>251595</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>158279</t>
+          <t>267047</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>71,31%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>69,22%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>73,47%</t>
         </is>
       </c>
     </row>
@@ -12740,22 +12740,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12775,22 +12775,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12810,22 +12810,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12857,107 +12857,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17112</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12012</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23263</t>
+          <t>8829</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>31989</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>25085</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>39491</t>
+          <t>8728</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>76</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>49101</t>
+          <t>12776</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>40969</t>
+          <t>9722</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>59954</t>
+          <t>15865</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>27,65%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -12970,107 +12970,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>10661</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>8234</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17487</t>
+          <t>13488</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>13800</t>
+          <t>24372</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>9052</t>
+          <t>20586</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>21612</t>
+          <t>28346</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>215</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>25935</t>
+          <t>35033</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>19229</t>
+          <t>30779</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>35457</t>
+          <t>39773</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>19,74%</t>
         </is>
       </c>
     </row>
@@ -13083,107 +13083,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>350</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24462</t>
+          <t>60516</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18604</t>
+          <t>57373</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>63544</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>45,54%</t>
+          <t>78,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>74,02%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>57,36%</t>
+          <t>81,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>557</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>48652</t>
+          <t>93184</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40699</t>
+          <t>89002</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>56686</t>
+          <t>97326</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>51,52%</t>
+          <t>75,15%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>907</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>73114</t>
+          <t>153700</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>61907</t>
+          <t>148222</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>83306</t>
+          <t>158559</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>41,79%</t>
+          <t>73,56%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>56,23%</t>
+          <t>78,69%</t>
         </is>
       </c>
     </row>
@@ -13196,22 +13196,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13231,22 +13231,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13266,22 +13266,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13313,107 +13313,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>13131</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8499</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>18441</t>
+          <t>6347</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18141</t>
+          <t>7081</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13617</t>
+          <t>5069</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>24022</t>
+          <t>9972</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>31273</t>
+          <t>11126</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>24508</t>
+          <t>8303</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>39075</t>
+          <t>14598</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -13426,107 +13426,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>6386</t>
+          <t>13171</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3680</t>
+          <t>10413</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>9774</t>
+          <t>16107</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>26,74%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>131</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13585</t>
+          <t>21928</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>9641</t>
+          <t>18411</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>19309</t>
+          <t>25601</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>199</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>19971</t>
+          <t>35099</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>15340</t>
+          <t>30911</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>26587</t>
+          <t>40144</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>17,9%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>23,25%</t>
         </is>
       </c>
     </row>
@@ -13539,107 +13539,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>187</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17029</t>
+          <t>34030</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>12218</t>
+          <t>30641</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>22145</t>
+          <t>37079</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>46,6%</t>
+          <t>66,41%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>33,43%</t>
+          <t>59,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>30431</t>
+          <t>92434</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>24682</t>
+          <t>88327</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>35638</t>
+          <t>96513</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>72,73%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>57,34%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>715</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>47460</t>
+          <t>126464</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>39606</t>
+          <t>121401</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>54895</t>
+          <t>131917</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>55,62%</t>
+          <t>76,39%</t>
         </is>
       </c>
     </row>
@@ -13652,22 +13652,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13687,22 +13687,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>62157</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13722,22 +13722,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>98704</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>98704</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>98704</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13769,107 +13769,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>224871</t>
+          <t>64265</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>204313</t>
+          <t>57417</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>243412</t>
+          <t>72107</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>30,04%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>285988</t>
+          <t>68216</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>264878</t>
+          <t>61415</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>305710</t>
+          <t>76651</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>510859</t>
+          <t>132481</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>482992</t>
+          <t>123284</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>537794</t>
+          <t>142874</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>35,66%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -13882,107 +13882,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>151045</t>
+          <t>135998</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>135763</t>
+          <t>127063</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>167023</t>
+          <t>145756</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>827</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>159271</t>
+          <t>146173</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>144467</t>
+          <t>136954</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>177406</t>
+          <t>156957</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>310317</t>
+          <t>282172</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>289161</t>
+          <t>268218</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>336322</t>
+          <t>295883</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>23,48%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -13995,107 +13995,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>2907</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>304226</t>
+          <t>521143</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>284295</t>
+          <t>510308</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>324801</t>
+          <t>532458</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>44,73%</t>
+          <t>72,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>70,74%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>47,75%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>3218</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>307089</t>
+          <t>582541</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>287339</t>
+          <t>569892</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>327615</t>
+          <t>593197</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>6125</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>611315</t>
+          <t>1103684</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>579546</t>
+          <t>1087995</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>641708</t>
+          <t>1118809</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>72,69%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -14108,22 +14108,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>680142</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -14143,22 +14143,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>752349</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>752349</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>752349</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -14178,22 +14178,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1432491</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1432491</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1432491</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
